--- a/04/Exercise_2/results/benchmark.xlsx
+++ b/04/Exercise_2/results/benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabia\Documents\ps_parprog_2024_shared\04\Exercise_2\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C461B8-E2B5-4744-BEE1-CC252F7A7A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05213664-E6BD-40C8-A857-E82419298DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9B99442A-7CAB-4A04-92C1-B2DB71FCC5D8}"/>
   </bookViews>
